--- a/ip_addresses/ip_addresses.xlsx
+++ b/ip_addresses/ip_addresses.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:06</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:06</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:06</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:06</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:06</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:24</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:07</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:25</t>
+          <t>2024-05-30 19:20:08</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:26</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:26</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:26</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:26</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:26</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:26</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:27</t>
+          <t>2024-05-30 19:20:19</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="H48" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:30</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:30</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:30</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:30</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:30</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2632,14 +2632,14 @@
           <t>172.18.88.68</t>
         </is>
       </c>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>Not Reachable</t>
-        </is>
-      </c>
-      <c r="H57" s="3" t="inlineStr">
-        <is>
-          <t>2024-05-30 17:06:30</t>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Reachable</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:30</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:31</t>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3272,14 +3272,14 @@
           <t>129.210.30.198</t>
         </is>
       </c>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>Not Reachable</t>
-        </is>
-      </c>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
-          <t>2024-05-30 17:06:31</t>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>Reachable</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-30 19:20:31</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="H74" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:42</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:43</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:43</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:43</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="H78" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3672,14 +3672,14 @@
           <t>172.18.88.91</t>
         </is>
       </c>
-      <c r="G83" s="3" t="inlineStr">
-        <is>
-          <t>Not Reachable</t>
-        </is>
-      </c>
-      <c r="H83" s="3" t="inlineStr">
-        <is>
-          <t>2024-05-30 17:06:32</t>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Reachable</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 17:06:32</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:02</t>
+          <t>2024-05-30 19:20:54</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="H88" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:05</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:03</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:04</t>
+          <t>2024-05-30 19:21:06</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="H120" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:15</t>
+          <t>2024-05-30 19:21:17</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:15</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:15</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:15</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:18</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:19</t>
         </is>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:19</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:16</t>
+          <t>2024-05-30 19:21:19</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="H148" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:27</t>
+          <t>2024-05-30 19:21:30</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="H149" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:38</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:38</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:35</t>
         </is>
       </c>
     </row>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:39</t>
+          <t>2024-05-30 19:21:36</t>
         </is>
       </c>
     </row>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="H167" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:58:50</t>
+          <t>2024-05-30 19:21:36</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="H168" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:01</t>
+          <t>2024-05-30 19:21:38</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="H170" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:12</t>
+          <t>2024-05-30 19:21:38</t>
         </is>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="H171" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:23</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="H172" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:34</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:35</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="H175" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:46</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:46</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="H177" s="3" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:57</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:57</t>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7365,14 +7365,14 @@
           <t>172.17.168.7</t>
         </is>
       </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>Reachable</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-30 16:59:57</t>
+      <c r="G180" s="3" t="inlineStr">
+        <is>
+          <t>Not Reachable</t>
+        </is>
+      </c>
+      <c r="H180" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-30 19:21:39</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="H181" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:57</t>
+          <t>2024-05-30 19:21:40</t>
         </is>
       </c>
     </row>
@@ -7445,14 +7445,14 @@
           <t>172.17.168.3</t>
         </is>
       </c>
-      <c r="G182" s="2" t="inlineStr">
-        <is>
-          <t>Reachable</t>
-        </is>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-30 16:59:57</t>
+      <c r="G182" s="3" t="inlineStr">
+        <is>
+          <t>Not Reachable</t>
+        </is>
+      </c>
+      <c r="H182" s="3" t="inlineStr">
+        <is>
+          <t>2024-05-30 19:21:40</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>2024-05-30 16:59:57</t>
+          <t>2024-05-30 19:21:40</t>
         </is>
       </c>
     </row>
